--- a/Proj_data.xlsx
+++ b/Proj_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\STAT3510 Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95joo\Documents\Stat-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AC30860-9161-4368-85A6-28CAECB5E1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61CB8860-44A6-47D5-BBBB-32B6EA24502A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="203" windowWidth="16875" windowHeight="14002" firstSheet="1" activeTab="1" xr2:uid="{04E72AFF-3F4D-4E4A-808A-377A8F1A4F76}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{04E72AFF-3F4D-4E4A-808A-377A8F1A4F76}"/>
   </bookViews>
   <sheets>
     <sheet name="Indigenous Perceived Health" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="35">
   <si>
     <t>Year</t>
   </si>
@@ -135,13 +135,22 @@
   </si>
   <si>
     <t>2021.11-2022.04</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Probability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +175,38 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -187,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -199,6 +233,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,15 +580,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AF83DB-8F80-4F70-9313-4978C3592E63}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="8.86328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +604,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>2017</v>
       </c>
@@ -568,10 +625,20 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>47.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>47.7</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2/100</f>
+        <v>0.47700000000000004</v>
+      </c>
+      <c r="F2" s="9">
+        <v>475900</v>
+      </c>
+      <c r="G2">
+        <v>998520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2017</v>
       </c>
@@ -582,10 +649,20 @@
         <v>6</v>
       </c>
       <c r="D3" s="1">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30.9</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E37" si="0">D3/100</f>
+        <v>0.309</v>
+      </c>
+      <c r="F3" s="9">
+        <v>308620</v>
+      </c>
+      <c r="G3">
+        <v>998520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2017</v>
       </c>
@@ -596,10 +673,20 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21.2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F4" s="9">
+        <v>211690</v>
+      </c>
+      <c r="G4">
+        <v>998520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2017</v>
       </c>
@@ -610,10 +697,20 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>49.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>49.4</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F5">
+        <v>231200</v>
+      </c>
+      <c r="G5">
+        <v>467610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>2017</v>
       </c>
@@ -624,10 +721,20 @@
         <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30.6</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>143120</v>
+      </c>
+      <c r="G6">
+        <v>467610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>2017</v>
       </c>
@@ -638,10 +745,20 @@
         <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F7" s="9">
+        <v>91760</v>
+      </c>
+      <c r="G7">
+        <v>467610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>2017</v>
       </c>
@@ -652,10 +769,20 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>46.1</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="F8" s="9">
+        <v>244710</v>
+      </c>
+      <c r="G8">
+        <v>530900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>2017</v>
       </c>
@@ -666,10 +793,20 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>30.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31.2</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.312</v>
+      </c>
+      <c r="F9" s="9">
+        <v>165500</v>
+      </c>
+      <c r="G9">
+        <v>530900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>2017</v>
       </c>
@@ -680,10 +817,20 @@
         <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22.6</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F10" s="9">
+        <v>119930</v>
+      </c>
+      <c r="G10">
+        <v>530900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
@@ -696,8 +843,18 @@
       <c r="D11" s="1">
         <v>48.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="F11">
+        <v>489000</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1002000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
@@ -710,8 +867,18 @@
       <c r="D12" s="1">
         <v>35.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35100000000000003</v>
+      </c>
+      <c r="F12">
+        <v>352000</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1002000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
@@ -724,8 +891,18 @@
       <c r="D13" s="1">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.161</v>
+      </c>
+      <c r="F13">
+        <v>161300</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1002000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>2021</v>
       </c>
@@ -738,8 +915,18 @@
       <c r="D14" s="1">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F14">
+        <v>241000</v>
+      </c>
+      <c r="G14">
+        <v>465000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>2021</v>
       </c>
@@ -752,8 +939,18 @@
       <c r="D15" s="1">
         <v>37.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.379</v>
+      </c>
+      <c r="F15">
+        <v>176000</v>
+      </c>
+      <c r="G15">
+        <v>465000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
@@ -766,8 +963,18 @@
       <c r="D16" s="1">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F16">
+        <v>47000</v>
+      </c>
+      <c r="G16">
+        <v>465000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>2021</v>
       </c>
@@ -780,8 +987,18 @@
       <c r="D17" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="F17">
+        <v>247000</v>
+      </c>
+      <c r="G17">
+        <v>537000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>2021</v>
       </c>
@@ -794,8 +1011,18 @@
       <c r="D18" s="1">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="F18">
+        <v>175000</v>
+      </c>
+      <c r="G18">
+        <v>537000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>2021</v>
       </c>
@@ -808,8 +1035,18 @@
       <c r="D19" s="1">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F19">
+        <v>114000</v>
+      </c>
+      <c r="G19">
+        <v>537000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>2022</v>
       </c>
@@ -820,10 +1057,20 @@
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>46.1</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="F20">
+        <v>462000</v>
+      </c>
+      <c r="G20">
+        <v>1002200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>2022</v>
       </c>
@@ -834,10 +1081,20 @@
         <v>6</v>
       </c>
       <c r="D21" s="1">
-        <v>34.700000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>36.5</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="F21">
+        <v>366000</v>
+      </c>
+      <c r="G21">
+        <v>1002200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>2022</v>
       </c>
@@ -848,10 +1105,20 @@
         <v>7</v>
       </c>
       <c r="D22" s="1">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F22">
+        <v>174000</v>
+      </c>
+      <c r="G22">
+        <v>1002200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>2022</v>
       </c>
@@ -862,10 +1129,20 @@
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>49.5</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.495</v>
+      </c>
+      <c r="F23">
+        <v>221000</v>
+      </c>
+      <c r="G23">
+        <v>446900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>2022</v>
       </c>
@@ -876,10 +1153,20 @@
         <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+        <v>38.9</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="F24">
+        <v>174000</v>
+      </c>
+      <c r="G24">
+        <v>446900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>2022</v>
       </c>
@@ -890,10 +1177,20 @@
         <v>7</v>
       </c>
       <c r="D25" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+        <v>11.6</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="F25">
+        <v>52000</v>
+      </c>
+      <c r="G25">
+        <v>446900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>2022</v>
       </c>
@@ -904,10 +1201,20 @@
         <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>41.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+        <v>43.4</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.434</v>
+      </c>
+      <c r="F26">
+        <v>241000</v>
+      </c>
+      <c r="G26">
+        <v>555300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>2022</v>
       </c>
@@ -918,10 +1225,20 @@
         <v>6</v>
       </c>
       <c r="D27" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+        <v>34.6</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34600000000000003</v>
+      </c>
+      <c r="F27">
+        <v>192000</v>
+      </c>
+      <c r="G27">
+        <v>555300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>2022</v>
       </c>
@@ -932,10 +1249,20 @@
         <v>7</v>
       </c>
       <c r="D28" s="1">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="F28">
+        <v>122000</v>
+      </c>
+      <c r="G28">
+        <v>555300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>2023</v>
       </c>
@@ -946,10 +1273,20 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>47.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="F29">
+        <v>392000</v>
+      </c>
+      <c r="G29">
+        <v>987000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>2023</v>
       </c>
@@ -960,10 +1297,20 @@
         <v>6</v>
       </c>
       <c r="D30" s="1">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="F30">
+        <v>385000</v>
+      </c>
+      <c r="G30">
+        <v>987000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>2023</v>
       </c>
@@ -974,10 +1321,20 @@
         <v>7</v>
       </c>
       <c r="D31" s="1">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21.3</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F31">
+        <v>210000</v>
+      </c>
+      <c r="G31">
+        <v>987000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>2023</v>
       </c>
@@ -988,10 +1345,20 @@
         <v>5</v>
       </c>
       <c r="D32" s="1">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+        <v>40.9</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F32">
+        <v>182000</v>
+      </c>
+      <c r="G32">
+        <v>445000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>2023</v>
       </c>
@@ -1002,10 +1369,20 @@
         <v>6</v>
       </c>
       <c r="D33" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+        <v>41.1</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41100000000000003</v>
+      </c>
+      <c r="F33">
+        <v>182900</v>
+      </c>
+      <c r="G33">
+        <v>445000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>2023</v>
       </c>
@@ -1016,10 +1393,20 @@
         <v>7</v>
       </c>
       <c r="D34" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F34">
+        <v>80100</v>
+      </c>
+      <c r="G34">
+        <v>445000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>2023</v>
       </c>
@@ -1030,10 +1417,20 @@
         <v>5</v>
       </c>
       <c r="D35" s="1">
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F35">
+        <v>209800</v>
+      </c>
+      <c r="G35">
+        <v>542000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>2023</v>
       </c>
@@ -1044,10 +1441,20 @@
         <v>6</v>
       </c>
       <c r="D36" s="1">
-        <v>38.200000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37200000000000005</v>
+      </c>
+      <c r="F36">
+        <v>201600</v>
+      </c>
+      <c r="G36">
+        <v>542000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>2023</v>
       </c>
@@ -1058,7 +1465,17 @@
         <v>7</v>
       </c>
       <c r="D37" s="1">
-        <v>15.7</v>
+        <v>24.1</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24100000000000002</v>
+      </c>
+      <c r="F37">
+        <v>130600</v>
+      </c>
+      <c r="G37">
+        <v>542000</v>
       </c>
     </row>
   </sheetData>
@@ -1068,15 +1485,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879859C3-263B-4CC5-905B-A4C37BDEA5E2}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,8 +1509,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>2017</v>
       </c>
@@ -1103,8 +1532,18 @@
       <c r="D2" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="1">
+        <f>D2/100</f>
+        <v>0.61</v>
+      </c>
+      <c r="F2" s="5">
+        <v>18885900</v>
+      </c>
+      <c r="G2">
+        <v>30960000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2017</v>
       </c>
@@ -1117,8 +1556,18 @@
       <c r="D3" s="1">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E37" si="0">D3/100</f>
+        <v>0.27899999999999997</v>
+      </c>
+      <c r="F3">
+        <v>8637800</v>
+      </c>
+      <c r="G3">
+        <v>30960000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2017</v>
       </c>
@@ -1129,10 +1578,20 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>11.2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3460600</v>
+      </c>
+      <c r="G4">
+        <v>30960000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2017</v>
       </c>
@@ -1145,8 +1604,18 @@
       <c r="D5" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="F5" s="7">
+        <v>9310400</v>
+      </c>
+      <c r="G5">
+        <v>15263000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>2017</v>
       </c>
@@ -1159,8 +1628,18 @@
       <c r="D6" s="1">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="F6">
+        <v>4334700</v>
+      </c>
+      <c r="G6">
+        <v>15263000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>2017</v>
       </c>
@@ -1173,8 +1652,18 @@
       <c r="D7" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.106</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1624600</v>
+      </c>
+      <c r="G7">
+        <v>15263000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>2017</v>
       </c>
@@ -1185,10 +1674,20 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>61.1</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F8" s="8">
+        <v>9575500</v>
+      </c>
+      <c r="G8">
+        <v>15672000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>2017</v>
       </c>
@@ -1201,8 +1700,18 @@
       <c r="D9" s="1">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F9">
+        <v>4278500</v>
+      </c>
+      <c r="G9">
+        <v>15672000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>2017</v>
       </c>
@@ -1215,8 +1724,18 @@
       <c r="D10" s="1">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1836000</v>
+      </c>
+      <c r="G10">
+        <v>15672000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
@@ -1229,8 +1748,18 @@
       <c r="D11" s="1">
         <v>57.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57100000000000006</v>
+      </c>
+      <c r="F11">
+        <v>17877000</v>
+      </c>
+      <c r="G11" s="9">
+        <v>31288000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
@@ -1243,8 +1772,18 @@
       <c r="D12" s="1">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.314</v>
+      </c>
+      <c r="F12">
+        <v>9837000</v>
+      </c>
+      <c r="G12" s="9">
+        <v>31288000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
@@ -1257,8 +1796,18 @@
       <c r="D13" s="1">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.114</v>
+      </c>
+      <c r="F13">
+        <v>3574000</v>
+      </c>
+      <c r="G13" s="9">
+        <v>31288000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>2021</v>
       </c>
@@ -1271,8 +1820,18 @@
       <c r="D14" s="1">
         <v>60.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F14">
+        <v>9341000</v>
+      </c>
+      <c r="G14" s="9">
+        <v>15451000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>2021</v>
       </c>
@@ -1285,8 +1844,18 @@
       <c r="D15" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F15">
+        <v>4484000</v>
+      </c>
+      <c r="G15" s="9">
+        <v>15451000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
@@ -1299,8 +1868,18 @@
       <c r="D16" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.105</v>
+      </c>
+      <c r="F16">
+        <v>1626000</v>
+      </c>
+      <c r="G16" s="9">
+        <v>15451000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>2021</v>
       </c>
@@ -1313,8 +1892,18 @@
       <c r="D17" s="1">
         <v>53.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="F17">
+        <v>8536000</v>
+      </c>
+      <c r="G17" s="9">
+        <v>15837000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>2021</v>
       </c>
@@ -1327,8 +1916,18 @@
       <c r="D18" s="1">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33799999999999997</v>
+      </c>
+      <c r="F18">
+        <v>5353000</v>
+      </c>
+      <c r="G18" s="9">
+        <v>15837000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>2021</v>
       </c>
@@ -1341,8 +1940,18 @@
       <c r="D19" s="1">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12300000000000001</v>
+      </c>
+      <c r="F19">
+        <v>1948000</v>
+      </c>
+      <c r="G19" s="9">
+        <v>15837000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>2022</v>
       </c>
@@ -1353,10 +1962,20 @@
         <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50.5</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.505</v>
+      </c>
+      <c r="F20">
+        <v>16043000</v>
+      </c>
+      <c r="G20" s="9">
+        <v>31739000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>2022</v>
       </c>
@@ -1367,10 +1986,20 @@
         <v>6</v>
       </c>
       <c r="D21" s="1">
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>34.9</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="F21">
+        <v>11082000</v>
+      </c>
+      <c r="G21" s="9">
+        <v>31739000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>2022</v>
       </c>
@@ -1381,10 +2010,20 @@
         <v>7</v>
       </c>
       <c r="D22" s="1">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>14.5</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F22">
+        <v>4614000</v>
+      </c>
+      <c r="G22" s="9">
+        <v>31739000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>2022</v>
       </c>
@@ -1395,10 +2034,20 @@
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>55.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>51.1</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="F23">
+        <v>8006000</v>
+      </c>
+      <c r="G23" s="9">
+        <v>15682000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>2022</v>
       </c>
@@ -1409,10 +2058,20 @@
         <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35700000000000004</v>
+      </c>
+      <c r="F24">
+        <v>5596000</v>
+      </c>
+      <c r="G24" s="9">
+        <v>15682000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>2022</v>
       </c>
@@ -1423,10 +2082,20 @@
         <v>7</v>
       </c>
       <c r="D25" s="1">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+        <v>13.3</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F25">
+        <v>2080000</v>
+      </c>
+      <c r="G25" s="9">
+        <v>15682000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>2022</v>
       </c>
@@ -1437,10 +2106,20 @@
         <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50.1</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.501</v>
+      </c>
+      <c r="F26">
+        <v>8037000</v>
+      </c>
+      <c r="G26" s="9">
+        <v>16057000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>2022</v>
       </c>
@@ -1451,10 +2130,20 @@
         <v>6</v>
       </c>
       <c r="D27" s="1">
-        <v>34.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F27">
+        <v>5486000</v>
+      </c>
+      <c r="G27" s="9">
+        <v>16057000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>2022</v>
       </c>
@@ -1465,10 +2154,20 @@
         <v>7</v>
       </c>
       <c r="D28" s="1">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+        <v>15.8</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.158</v>
+      </c>
+      <c r="F28">
+        <v>2534000</v>
+      </c>
+      <c r="G28" s="9">
+        <v>16057000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>2023</v>
       </c>
@@ -1481,8 +2180,18 @@
       <c r="D29" s="1">
         <v>47.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="F29">
+        <v>15482000</v>
+      </c>
+      <c r="G29" s="9">
+        <v>32376000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>2023</v>
       </c>
@@ -1495,8 +2204,18 @@
       <c r="D30" s="1">
         <v>36.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F30">
+        <v>11854000</v>
+      </c>
+      <c r="G30" s="9">
+        <v>32376000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>2023</v>
       </c>
@@ -1509,8 +2228,18 @@
       <c r="D31" s="1">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.156</v>
+      </c>
+      <c r="F31">
+        <v>5040000</v>
+      </c>
+      <c r="G31" s="9">
+        <v>32376000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>2023</v>
       </c>
@@ -1523,8 +2252,18 @@
       <c r="D32" s="1">
         <v>49.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.495</v>
+      </c>
+      <c r="F32">
+        <v>7957000</v>
+      </c>
+      <c r="G32" s="9">
+        <v>16083000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>2023</v>
       </c>
@@ -1537,8 +2276,18 @@
       <c r="D33" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="F33">
+        <v>5636000</v>
+      </c>
+      <c r="G33" s="9">
+        <v>16083000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>2023</v>
       </c>
@@ -1551,8 +2300,18 @@
       <c r="D34" s="1">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.155</v>
+      </c>
+      <c r="F34">
+        <v>2490000</v>
+      </c>
+      <c r="G34" s="9">
+        <v>16083000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>2023</v>
       </c>
@@ -1565,8 +2324,18 @@
       <c r="D35" s="1">
         <v>46.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F35">
+        <v>7526000</v>
+      </c>
+      <c r="G35" s="9">
+        <v>16295000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>2023</v>
       </c>
@@ -1579,8 +2348,18 @@
       <c r="D36" s="1">
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F36">
+        <v>6219000</v>
+      </c>
+      <c r="G36" s="9">
+        <v>16295000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>2023</v>
       </c>
@@ -1593,9 +2372,20 @@
       <c r="D37" s="1">
         <v>15.7</v>
       </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.157</v>
+      </c>
+      <c r="F37">
+        <v>2550000</v>
+      </c>
+      <c r="G37" s="9">
+        <v>16295000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1604,7 +2394,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D17" sqref="D17:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1796,7 +2586,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="3">
-        <v>83.4</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -1807,7 +2597,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="3">
-        <v>79.3</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -1818,7 +2608,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="3">
-        <v>87.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -1829,7 +2619,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="3">
-        <v>83.2</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -1840,7 +2630,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="3">
-        <v>79.3</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -1851,7 +2641,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="3">
-        <v>87.1</v>
+        <v>29.6</v>
       </c>
     </row>
   </sheetData>

--- a/Proj_data.xlsx
+++ b/Proj_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95joo\Documents\Stat-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61CB8860-44A6-47D5-BBBB-32B6EA24502A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4C90A4-173C-42A7-A309-33F1042FDA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{04E72AFF-3F4D-4E4A-808A-377A8F1A4F76}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{04E72AFF-3F4D-4E4A-808A-377A8F1A4F76}"/>
   </bookViews>
   <sheets>
     <sheet name="Indigenous Perceived Health" sheetId="1" r:id="rId1"/>
-    <sheet name="Canadian Perceived Health" sheetId="2" r:id="rId2"/>
-    <sheet name="Indigenous Vaccination" sheetId="3" r:id="rId3"/>
-    <sheet name="Canadian Vaccination" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Canadian Perceived Health" sheetId="2" r:id="rId3"/>
+    <sheet name="Indigenous Vaccination" sheetId="3" r:id="rId4"/>
+    <sheet name="Canadian Vaccination" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="41">
   <si>
     <t>Year</t>
   </si>
@@ -144,6 +145,24 @@
   </si>
   <si>
     <t>Probability</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Indigenous</t>
+  </si>
+  <si>
+    <t>Excellent+Good</t>
+  </si>
+  <si>
+    <t>Canadian</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>Post</t>
   </si>
 </sst>
 </file>
@@ -580,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AF83DB-8F80-4F70-9313-4978C3592E63}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -591,7 +610,7 @@
     <col min="7" max="7" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,8 +632,9 @@
       <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>2017</v>
       </c>
@@ -638,7 +658,7 @@
         <v>998520</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2017</v>
       </c>
@@ -662,7 +682,7 @@
         <v>998520</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2017</v>
       </c>
@@ -686,7 +706,7 @@
         <v>998520</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2017</v>
       </c>
@@ -710,7 +730,7 @@
         <v>467610</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>2017</v>
       </c>
@@ -734,7 +754,7 @@
         <v>467610</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>2017</v>
       </c>
@@ -758,7 +778,7 @@
         <v>467610</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>2017</v>
       </c>
@@ -782,7 +802,7 @@
         <v>530900</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>2017</v>
       </c>
@@ -806,7 +826,7 @@
         <v>530900</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>2017</v>
       </c>
@@ -830,7 +850,7 @@
         <v>530900</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
@@ -854,7 +874,7 @@
         <v>1002000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
@@ -878,7 +898,7 @@
         <v>1002000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
@@ -902,7 +922,7 @@
         <v>1002000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>2021</v>
       </c>
@@ -926,7 +946,7 @@
         <v>465000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>2021</v>
       </c>
@@ -950,7 +970,7 @@
         <v>465000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
@@ -1484,11 +1504,369 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7227D25A-ADEC-4FE8-A9E6-B973C9E0598A}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>374320</v>
+      </c>
+      <c r="D2" s="1">
+        <v>91760</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>410210</v>
+      </c>
+      <c r="D3" s="1">
+        <v>119930</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>417000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>47000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>422000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>114000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>395000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>52000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>433000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>122000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3649000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>411400</v>
+      </c>
+      <c r="D9" s="1">
+        <v>130600</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13645100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1624600</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>13854000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1836000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13825000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1626000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13889000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1948000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13602000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2080000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13523000</v>
+      </c>
+      <c r="D15">
+        <v>2534000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13593000</v>
+      </c>
+      <c r="D16">
+        <v>2490000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1">
+        <v>13745000</v>
+      </c>
+      <c r="D17">
+        <v>2550000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879859C3-263B-4CC5-905B-A4C37BDEA5E2}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2389,7 +2767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F00626E-FC96-4D58-A210-802AEAA4BEB8}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -2649,7 +3027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1197F7C-7633-43B0-B4D8-083EB56C1716}">
   <dimension ref="A1:D22"/>
   <sheetViews>

--- a/Proj_data.xlsx
+++ b/Proj_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95joo\Documents\Stat-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4C90A4-173C-42A7-A309-33F1042FDA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40E2C967-50CB-4DC9-987A-EB8E49A008A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{04E72AFF-3F4D-4E4A-808A-377A8F1A4F76}"/>
+    <workbookView xWindow="4253" yWindow="1253" windowWidth="14077" windowHeight="12517" activeTab="1" xr2:uid="{04E72AFF-3F4D-4E4A-808A-377A8F1A4F76}"/>
   </bookViews>
   <sheets>
     <sheet name="Indigenous Perceived Health" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AF83DB-8F80-4F70-9313-4978C3592E63}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:G37"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1508,7 +1508,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1664,7 +1664,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>3649000</v>
+        <v>364900</v>
       </c>
       <c r="D8" s="1">
         <v>80100</v>

--- a/Proj_data.xlsx
+++ b/Proj_data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95joo\Documents\Stat-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40E2C967-50CB-4DC9-987A-EB8E49A008A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{627DDD70-4A47-4670-B8F1-30CDBD1FF297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4253" yWindow="1253" windowWidth="14077" windowHeight="12517" activeTab="1" xr2:uid="{04E72AFF-3F4D-4E4A-808A-377A8F1A4F76}"/>
+    <workbookView xWindow="9158" yWindow="1837" windowWidth="14077" windowHeight="12518" xr2:uid="{04E72AFF-3F4D-4E4A-808A-377A8F1A4F76}"/>
   </bookViews>
   <sheets>
-    <sheet name="Indigenous Perceived Health" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="Canadian Perceived Health" sheetId="2" r:id="rId3"/>
-    <sheet name="Indigenous Vaccination" sheetId="3" r:id="rId4"/>
-    <sheet name="Canadian Vaccination" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Sample size" sheetId="6" r:id="rId2"/>
+    <sheet name="Indigenous Perceived Health" sheetId="1" r:id="rId3"/>
+    <sheet name="Canadian Perceived Health" sheetId="2" r:id="rId4"/>
+    <sheet name="Indigenous Vaccination" sheetId="3" r:id="rId5"/>
+    <sheet name="Canadian Vaccination" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="63">
   <si>
     <t>Year</t>
   </si>
@@ -153,9 +154,6 @@
     <t>Indigenous</t>
   </si>
   <si>
-    <t>Excellent+Good</t>
-  </si>
-  <si>
     <t>Canadian</t>
   </si>
   <si>
@@ -163,13 +161,82 @@
   </si>
   <si>
     <t>Post</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Aboriginal identity</t>
+  </si>
+  <si>
+    <t>Total, Aboriginal identity</t>
+  </si>
+  <si>
+    <t>Number of Respondents</t>
+  </si>
+  <si>
+    <t>https://www23.statcan.gc.ca/imdb/p2SV.pl?Function=getSurvey&amp;SDDS=3250</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Self-perceived general health</t>
+  </si>
+  <si>
+    <t>Persons</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Proportion</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>Both sexes</t>
+  </si>
+  <si>
+    <t>Excellent self-perceived general health</t>
+  </si>
+  <si>
+    <t>Very good self-perceived general health</t>
+  </si>
+  <si>
+    <t>Good self-perceived general health</t>
+  </si>
+  <si>
+    <t>Fair or poor self-perceived general health</t>
+  </si>
+  <si>
+    <t>Males</t>
+  </si>
+  <si>
+    <t>Females</t>
+  </si>
+  <si>
+    <t>https://www23.statcan.gc.ca/imdb/p2SV.pl?Function=getSurvey&amp;SDDS=3226</t>
+  </si>
+  <si>
+    <t>https://www23.statcan.gc.ca/imdb/p2SV.pl?Function=getSurvey&amp;Id=1528621</t>
+  </si>
+  <si>
+    <t>Ex_G</t>
+  </si>
+  <si>
+    <t>F_P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +274,46 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +332,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAF2D0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE2D5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -236,11 +359,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -265,8 +451,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -280,6 +517,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,11 +839,2405 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7227D25A-ADEC-4FE8-A9E6-B973C9E0598A}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="26">
+        <v>11331</v>
+      </c>
+      <c r="D2" s="28">
+        <f>C2-E2</f>
+        <v>9110.1239999999998</v>
+      </c>
+      <c r="E2" s="11">
+        <f>F2/100*C2</f>
+        <v>2220.8760000000002</v>
+      </c>
+      <c r="F2" s="11">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12">
+        <v>12889</v>
+      </c>
+      <c r="D3" s="28">
+        <f>C3-E3</f>
+        <v>9976.0859999999993</v>
+      </c>
+      <c r="E3" s="11">
+        <f>F3/100*C3</f>
+        <v>2912.9140000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="31">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="28">
+        <f>C4-E4</f>
+        <v>4490</v>
+      </c>
+      <c r="E4" s="11">
+        <f>F4/100*C4</f>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="31">
+        <v>5776</v>
+      </c>
+      <c r="D5" s="28">
+        <f>C5-E5</f>
+        <v>4545.7119999999995</v>
+      </c>
+      <c r="E5" s="11">
+        <f>F5/100*C5</f>
+        <v>1230.288</v>
+      </c>
+      <c r="F5" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="31">
+        <v>4818</v>
+      </c>
+      <c r="D6" s="28">
+        <f>C6-E6</f>
+        <v>4259.1120000000001</v>
+      </c>
+      <c r="E6" s="11">
+        <f>F6/100*C6</f>
+        <v>558.88799999999992</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="31">
+        <v>5982</v>
+      </c>
+      <c r="D7" s="28">
+        <f>C7-E7</f>
+        <v>4665.96</v>
+      </c>
+      <c r="E7" s="11">
+        <f>F7/100*C7</f>
+        <v>1316.04</v>
+      </c>
+      <c r="F7" s="1">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="31">
+        <v>4869</v>
+      </c>
+      <c r="D8" s="28">
+        <f>C8-E8</f>
+        <v>3992.58</v>
+      </c>
+      <c r="E8" s="11">
+        <f>F8/100*C8</f>
+        <v>876.42</v>
+      </c>
+      <c r="F8" s="1">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="31">
+        <v>5931</v>
+      </c>
+      <c r="D9" s="28">
+        <f>C9-E9</f>
+        <v>4501.6289999999999</v>
+      </c>
+      <c r="E9" s="11">
+        <f>F9/100*C9</f>
+        <v>1429.3710000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="31">
+        <v>32033</v>
+      </c>
+      <c r="D10" s="28">
+        <f>C10-E10</f>
+        <v>28637.502</v>
+      </c>
+      <c r="E10" s="11">
+        <f>F10/100*C10</f>
+        <v>3395.498</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="31">
+        <v>32915</v>
+      </c>
+      <c r="D11" s="28">
+        <f>C11-E11</f>
+        <v>29063.945</v>
+      </c>
+      <c r="E11" s="11">
+        <f>F11/100*C11</f>
+        <v>3851.0549999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="31">
+        <v>5333</v>
+      </c>
+      <c r="D12" s="28">
+        <f>C12-E12</f>
+        <v>4773.0349999999999</v>
+      </c>
+      <c r="E12" s="11">
+        <f>F12/100*C12</f>
+        <v>559.96500000000003</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="31">
+        <v>5467</v>
+      </c>
+      <c r="D13" s="28">
+        <f>C13-E13</f>
+        <v>4794.5590000000002</v>
+      </c>
+      <c r="E13" s="11">
+        <f>F13/100*C13</f>
+        <v>672.44100000000003</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="31">
+        <v>5336</v>
+      </c>
+      <c r="D14" s="28">
+        <f>C14-E14</f>
+        <v>4626.3119999999999</v>
+      </c>
+      <c r="E14" s="11">
+        <f>F14/100*C14</f>
+        <v>709.68799999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="31">
+        <v>5464</v>
+      </c>
+      <c r="D15" s="28">
+        <f>C15-E15</f>
+        <v>4600.6880000000001</v>
+      </c>
+      <c r="E15" s="11">
+        <f>F15/100*C15</f>
+        <v>863.31200000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="31">
+        <v>5365</v>
+      </c>
+      <c r="D16" s="28">
+        <f>C16-E16</f>
+        <v>4533.4250000000002</v>
+      </c>
+      <c r="E16" s="11">
+        <f>F16/100*C16</f>
+        <v>831.57500000000005</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="31">
+        <v>5436</v>
+      </c>
+      <c r="D17" s="28">
+        <f>C17-E17</f>
+        <v>4582.5479999999998</v>
+      </c>
+      <c r="E17" s="11">
+        <f>F17/100*C17</f>
+        <v>853.452</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7C24AE-18FA-4348-BD18-857E36621CD2}">
+  <dimension ref="A1:O60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="9.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="15">
+        <v>24220</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2017</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="10">
+        <v>183820</v>
+      </c>
+      <c r="E6" s="20">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F6" s="13">
+        <f>E6/100</f>
+        <v>0.184</v>
+      </c>
+      <c r="G6" s="11">
+        <f>F6*$D$3</f>
+        <v>4456.4799999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="21">
+        <v>292080</v>
+      </c>
+      <c r="E7" s="22">
+        <v>29.3</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" ref="F7:F9" si="0">E7/100</f>
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" ref="G7:G9" si="1">F7*$D$3</f>
+        <v>7096.4599999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="21">
+        <v>308620</v>
+      </c>
+      <c r="E8" s="22">
+        <v>30.9</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.309</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="1"/>
+        <v>7483.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="23">
+        <v>211690</v>
+      </c>
+      <c r="E9" s="24">
+        <v>21.2</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="1"/>
+        <v>5134.6399999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="26">
+        <f>SUM(D6:D9)</f>
+        <v>996210</v>
+      </c>
+      <c r="E10" s="27">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="26">
+        <f>SUM(G6:G9)</f>
+        <v>24171.559999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="10">
+        <v>94620</v>
+      </c>
+      <c r="E11" s="20">
+        <v>20.2</v>
+      </c>
+      <c r="F11" s="13">
+        <f>E11/100</f>
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="G11" s="11">
+        <f>F11*$G$15</f>
+        <v>2288.8944206542792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="21">
+        <v>136570</v>
+      </c>
+      <c r="E12" s="22">
+        <v>29.2</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" ref="F12:F13" si="2">E12/100</f>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" ref="G12:G14" si="3">F12*$G$15</f>
+        <v>3308.6988655002456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="21">
+        <v>143120</v>
+      </c>
+      <c r="E13" s="22">
+        <v>30.6</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="2"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="3"/>
+        <v>3467.3351124762848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="23">
+        <v>91760</v>
+      </c>
+      <c r="E14" s="24">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F14" s="13">
+        <f>E14/100</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="3"/>
+        <v>2220.9074576645485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="26">
+        <f>SUM(D11:D14)</f>
+        <v>466070</v>
+      </c>
+      <c r="E15" s="27">
+        <f>D15/D10</f>
+        <v>0.46784312544543821</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="26">
+        <f>D3*E15</f>
+        <v>11331.160498288513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="10">
+        <v>89200</v>
+      </c>
+      <c r="E16" s="20">
+        <v>16.8</v>
+      </c>
+      <c r="F16" s="13">
+        <f>E16/100</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G16" s="11">
+        <f>F16*$G$20</f>
+        <v>2165.3250362875301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="21">
+        <v>155510</v>
+      </c>
+      <c r="E17" s="22">
+        <v>29.3</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" ref="F17:F19" si="4">E17/100</f>
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" ref="G17:G19" si="5">F17*$G$20</f>
+        <v>3776.4299740014653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="21">
+        <v>165500</v>
+      </c>
+      <c r="E18" s="22">
+        <v>31.2</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="4"/>
+        <v>0.312</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="5"/>
+        <v>4021.3179245339838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="23">
+        <v>119930</v>
+      </c>
+      <c r="E19" s="24">
+        <v>22.6</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="4"/>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="5"/>
+        <v>2912.8777273867963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="26">
+        <f>SUM(D16:D19)</f>
+        <v>530140</v>
+      </c>
+      <c r="E20" s="27">
+        <f>D20/D10</f>
+        <v>0.53215687455456184</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="26">
+        <f>D3*E20</f>
+        <v>12888.839501711487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="15">
+        <v>65000</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="5">
+        <v>18885900</v>
+      </c>
+      <c r="E22" s="1">
+        <v>61</v>
+      </c>
+      <c r="F22">
+        <f>E22/100</f>
+        <v>0.61</v>
+      </c>
+      <c r="G22">
+        <f>$D$21*F22</f>
+        <v>39650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>8637800</v>
+      </c>
+      <c r="E23" s="1">
+        <v>27.9</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F24" si="6">E23/100</f>
+        <v>0.27899999999999997</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G24" si="7">$D$21*F23</f>
+        <v>18134.999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3460600</v>
+      </c>
+      <c r="E24" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="7"/>
+        <v>7279.9999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="13"/>
+      <c r="C25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="26">
+        <f>SUM(D22:D24)</f>
+        <v>30984300</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E22:E24)</f>
+        <v>100.10000000000001</v>
+      </c>
+      <c r="G25" s="30">
+        <f>SUM(G22:G24)</f>
+        <v>65065</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9310400</v>
+      </c>
+      <c r="E26" s="1">
+        <v>61</v>
+      </c>
+      <c r="F26">
+        <f>E26/100</f>
+        <v>0.61</v>
+      </c>
+      <c r="G26">
+        <f>$G$29*F26</f>
+        <v>19540.335105198439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>4334700</v>
+      </c>
+      <c r="E27" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F32" si="8">E27/100</f>
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G28" si="9">$G$29*F27</f>
+        <v>9097.4674916005843</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1624600</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>0.106</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="9"/>
+        <v>3395.533641231204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B29" s="13"/>
+      <c r="C29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="6">
+        <f>SUM(D26:D28)</f>
+        <v>15269700</v>
+      </c>
+      <c r="E29">
+        <f>D29/D25</f>
+        <v>0.49282055750815734</v>
+      </c>
+      <c r="G29" s="30">
+        <f>D21*E29</f>
+        <v>32033.336238030228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="8">
+        <v>9575500</v>
+      </c>
+      <c r="E30" s="1">
+        <v>61.1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="G30">
+        <f>$G$33*F30</f>
+        <v>20111.099815067631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>4278500</v>
+      </c>
+      <c r="E31" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G32" si="10">$G$33*F31</f>
+        <v>8985.8105556685168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1836000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="8"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="10"/>
+        <v>3851.061666715078</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B33" s="13"/>
+      <c r="C33" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="6">
+        <f>SUM(D30:D32)</f>
+        <v>15690000</v>
+      </c>
+      <c r="E33">
+        <f>D33/D25</f>
+        <v>0.50638549200724237</v>
+      </c>
+      <c r="G33" s="30">
+        <f>D21*E33</f>
+        <v>32915.056980470756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="15">
+        <f>20000*0.54</f>
+        <v>10800</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D35" s="29">
+        <v>2021</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29">
+        <v>2022</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29">
+        <v>2023</v>
+      </c>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D36" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37">
+        <v>489000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="F37">
+        <f>E37/100</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G37">
+        <f>$D$34*F37</f>
+        <v>5270.4</v>
+      </c>
+      <c r="H37">
+        <v>462000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>46.1</v>
+      </c>
+      <c r="J37">
+        <f>I37/100</f>
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="K37">
+        <f>$D$34*J37</f>
+        <v>4978.8</v>
+      </c>
+      <c r="L37">
+        <v>392000</v>
+      </c>
+      <c r="M37" s="1">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="N37">
+        <f>M37/100</f>
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="O37">
+        <f>$D$34*N37</f>
+        <v>4287.6000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38">
+        <v>352000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F47" si="11">E38/100</f>
+        <v>0.35100000000000003</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G39" si="12">$D$34*F38</f>
+        <v>3790.8</v>
+      </c>
+      <c r="H38">
+        <v>366000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:J40" si="13">I38/100</f>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38:K39" si="14">$D$34*J38</f>
+        <v>3942</v>
+      </c>
+      <c r="L38">
+        <v>385000</v>
+      </c>
+      <c r="M38" s="1">
+        <v>39</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:N40" si="15">M38/100</f>
+        <v>0.39</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ref="O38:O39" si="16">$D$34*N38</f>
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39">
+        <v>161300</v>
+      </c>
+      <c r="E39" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="11"/>
+        <v>0.161</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="12"/>
+        <v>1738.8</v>
+      </c>
+      <c r="H39">
+        <v>174000</v>
+      </c>
+      <c r="I39" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="13"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="14"/>
+        <v>1879.1999999999998</v>
+      </c>
+      <c r="L39">
+        <v>210000</v>
+      </c>
+      <c r="M39" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="15"/>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="16"/>
+        <v>2300.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B40" s="13"/>
+      <c r="C40" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40">
+        <f>SUM(D37:D39)</f>
+        <v>1002300</v>
+      </c>
+      <c r="E40">
+        <f>SUM(E37:E39)</f>
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="30">
+        <f>SUM(G37:G39)</f>
+        <v>10800</v>
+      </c>
+      <c r="H40">
+        <f>SUM(H37:H39)</f>
+        <v>1002000</v>
+      </c>
+      <c r="I40">
+        <f>SUM(I37:I39)</f>
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K40" s="30">
+        <f>SUM(K37:K39)</f>
+        <v>10800</v>
+      </c>
+      <c r="L40">
+        <f>SUM(L37:L39)</f>
+        <v>987000</v>
+      </c>
+      <c r="M40">
+        <f>SUM(M37:M39)</f>
+        <v>100</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="30">
+        <f>SUM(O37:O39)</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41">
+        <v>241000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="11"/>
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="G41">
+        <f>$G$44*F41</f>
+        <v>2594.8446572882372</v>
+      </c>
+      <c r="H41">
+        <v>221000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="J41">
+        <f>I41/100</f>
+        <v>0.495</v>
+      </c>
+      <c r="K41">
+        <f>$K$44*J41</f>
+        <v>2384.8922155688624</v>
+      </c>
+      <c r="L41">
+        <v>182000</v>
+      </c>
+      <c r="M41" s="1">
+        <v>40.9</v>
+      </c>
+      <c r="N41">
+        <f>M41/100</f>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="O41">
+        <f>$O$44*N41</f>
+        <v>1991.544072948328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>176000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>37.9</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="11"/>
+        <v>0.379</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ref="G42:G43" si="17">$G$44*F42</f>
+        <v>1894.8865609099073</v>
+      </c>
+      <c r="H42">
+        <v>174000</v>
+      </c>
+      <c r="I42" s="1">
+        <v>38.9</v>
+      </c>
+      <c r="J42">
+        <f>I42/100</f>
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K43" si="18">$K$44*J42</f>
+        <v>1874.188023952096</v>
+      </c>
+      <c r="L42">
+        <v>182900</v>
+      </c>
+      <c r="M42" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="N42">
+        <f>M42/100</f>
+        <v>0.41100000000000003</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O43" si="19">$O$44*N42</f>
+        <v>2001.2826747720364</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>47000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="11"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="17"/>
+        <v>509.96947021849746</v>
+      </c>
+      <c r="H43">
+        <v>52000</v>
+      </c>
+      <c r="I43" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="J43">
+        <f>I43/100</f>
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="18"/>
+        <v>558.88383233532932</v>
+      </c>
+      <c r="L43">
+        <v>80100</v>
+      </c>
+      <c r="M43" s="1">
+        <v>18</v>
+      </c>
+      <c r="N43">
+        <f>M43/100</f>
+        <v>0.18</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="19"/>
+        <v>876.47416413373855</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B44" s="13"/>
+      <c r="C44" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44">
+        <f>SUM(D41:D43)</f>
+        <v>464000</v>
+      </c>
+      <c r="E44">
+        <f>D44/D40</f>
+        <v>0.46293524892746685</v>
+      </c>
+      <c r="G44" s="30">
+        <f>E44*$D$34</f>
+        <v>4999.7006884166422</v>
+      </c>
+      <c r="H44">
+        <f>SUM(H41:H43)</f>
+        <v>447000</v>
+      </c>
+      <c r="I44">
+        <f>H44/H40</f>
+        <v>0.44610778443113774</v>
+      </c>
+      <c r="K44" s="30">
+        <f>I44*$D$34</f>
+        <v>4817.9640718562878</v>
+      </c>
+      <c r="L44">
+        <f>SUM(L41:L43)</f>
+        <v>445000</v>
+      </c>
+      <c r="M44">
+        <f>L44/L40</f>
+        <v>0.45086119554204662</v>
+      </c>
+      <c r="O44" s="30">
+        <f>M44*$D$34</f>
+        <v>4869.3009118541031</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>247000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>46</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="11"/>
+        <v>0.46</v>
+      </c>
+      <c r="G45">
+        <f>$G$48*F45</f>
+        <v>2656.7375037413944</v>
+      </c>
+      <c r="H45">
+        <v>241000</v>
+      </c>
+      <c r="I45" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="J45">
+        <f>I45/100</f>
+        <v>0.434</v>
+      </c>
+      <c r="K45">
+        <f>$K$48*J45</f>
+        <v>2596.2035928143709</v>
+      </c>
+      <c r="L45">
+        <v>209800</v>
+      </c>
+      <c r="M45" s="1">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="N45">
+        <f>M45/100</f>
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="O45">
+        <f>$O$48*N45</f>
+        <v>2295.1805471124621</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46">
+        <v>175000</v>
+      </c>
+      <c r="E46" s="1">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="11"/>
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G47" si="20">$G$48*F46</f>
+        <v>1888.5938341813828</v>
+      </c>
+      <c r="H46">
+        <v>192000</v>
+      </c>
+      <c r="I46" s="1">
+        <v>34.6</v>
+      </c>
+      <c r="J46">
+        <f>I46/100</f>
+        <v>0.34600000000000003</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ref="K46:K47" si="21">$K$48*J46</f>
+        <v>2069.7844311377248</v>
+      </c>
+      <c r="L46">
+        <v>201600</v>
+      </c>
+      <c r="M46" s="1">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="N46">
+        <f>M46/100</f>
+        <v>0.37200000000000005</v>
+      </c>
+      <c r="O46">
+        <f t="shared" ref="O46:O47" si="22">$O$48*N46</f>
+        <v>2206.2200607902741</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>114000</v>
+      </c>
+      <c r="E47" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="11"/>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="20"/>
+        <v>1230.1849745585153</v>
+      </c>
+      <c r="H47">
+        <v>122000</v>
+      </c>
+      <c r="I47" s="1">
+        <v>22</v>
+      </c>
+      <c r="J47">
+        <f>I47/100</f>
+        <v>0.22</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="21"/>
+        <v>1316.0479041916167</v>
+      </c>
+      <c r="L47">
+        <v>130600</v>
+      </c>
+      <c r="M47" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="N47">
+        <f>M47/100</f>
+        <v>0.24100000000000002</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="22"/>
+        <v>1429.2984802431613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B48" s="13"/>
+      <c r="C48" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48">
+        <f>SUM(D45:D47)</f>
+        <v>536000</v>
+      </c>
+      <c r="E48">
+        <f>D48/D40</f>
+        <v>0.53477002893345305</v>
+      </c>
+      <c r="G48" s="30">
+        <f>E48*$D$34</f>
+        <v>5775.5163124812925</v>
+      </c>
+      <c r="H48">
+        <f>SUM(H45:H47)</f>
+        <v>555000</v>
+      </c>
+      <c r="I48">
+        <f>H48/H40</f>
+        <v>0.55389221556886226</v>
+      </c>
+      <c r="K48" s="30">
+        <f>I48*$D$34</f>
+        <v>5982.0359281437122</v>
+      </c>
+      <c r="L48">
+        <f>SUM(L45:L47)</f>
+        <v>542000</v>
+      </c>
+      <c r="M48">
+        <f>L48/L40</f>
+        <v>0.54913880445795338</v>
+      </c>
+      <c r="O48" s="30">
+        <f>M48*$D$34</f>
+        <v>5930.6990881458969</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49">
+        <v>17877000</v>
+      </c>
+      <c r="E49" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="F49">
+        <f>E49/100</f>
+        <v>0.57100000000000006</v>
+      </c>
+      <c r="G49">
+        <f>$D$34*F49</f>
+        <v>6166.8000000000011</v>
+      </c>
+      <c r="H49">
+        <v>16043000</v>
+      </c>
+      <c r="I49" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="J49">
+        <f>I49/100</f>
+        <v>0.505</v>
+      </c>
+      <c r="K49">
+        <f>$D$34*J49</f>
+        <v>5454</v>
+      </c>
+      <c r="L49">
+        <v>15482000</v>
+      </c>
+      <c r="M49" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="N49">
+        <f>M49/100</f>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="O49">
+        <f>$D$34*N49</f>
+        <v>5162.3999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>9837000</v>
+      </c>
+      <c r="E50" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50:F52" si="23">E50/100</f>
+        <v>0.314</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ref="G50:G51" si="24">$D$34*F50</f>
+        <v>3391.2</v>
+      </c>
+      <c r="H50">
+        <v>11082000</v>
+      </c>
+      <c r="I50" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ref="J50:J52" si="25">I50/100</f>
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ref="K50:K51" si="26">$D$34*J50</f>
+        <v>3769.2</v>
+      </c>
+      <c r="L50">
+        <v>11854000</v>
+      </c>
+      <c r="M50" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="N50">
+        <f t="shared" ref="N50:N52" si="27">M50/100</f>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="O50">
+        <f t="shared" ref="O50:O51" si="28">$D$34*N50</f>
+        <v>3952.7999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51">
+        <v>3574000</v>
+      </c>
+      <c r="E51" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="23"/>
+        <v>0.114</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="24"/>
+        <v>1231.2</v>
+      </c>
+      <c r="H51">
+        <v>4614000</v>
+      </c>
+      <c r="I51" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="25"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="26"/>
+        <v>1566</v>
+      </c>
+      <c r="L51">
+        <v>5040000</v>
+      </c>
+      <c r="M51" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="27"/>
+        <v>0.156</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="28"/>
+        <v>1684.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B52" s="13"/>
+      <c r="C52" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52">
+        <f>SUM(D49:D51)</f>
+        <v>31288000</v>
+      </c>
+      <c r="E52">
+        <f>SUM(E49:E51)</f>
+        <v>99.9</v>
+      </c>
+      <c r="G52" s="30">
+        <f>SUM(G49:G51)</f>
+        <v>10789.2</v>
+      </c>
+      <c r="H52">
+        <f>SUM(H49:H51)</f>
+        <v>31739000</v>
+      </c>
+      <c r="I52">
+        <f>SUM(I49:I51)</f>
+        <v>99.9</v>
+      </c>
+      <c r="K52" s="30">
+        <f>SUM(K49:K51)</f>
+        <v>10789.2</v>
+      </c>
+      <c r="L52">
+        <f>SUM(L49:L51)</f>
+        <v>32376000</v>
+      </c>
+      <c r="M52">
+        <f>SUM(M49:M51)</f>
+        <v>100</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="O52" s="30">
+        <f>SUM(O49:O51)</f>
+        <v>10799.999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>9341000</v>
+      </c>
+      <c r="E53" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="F53">
+        <f>E53/100</f>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G53">
+        <f>$G$56*F53</f>
+        <v>3226.6950268473533</v>
+      </c>
+      <c r="H53">
+        <v>8006000</v>
+      </c>
+      <c r="I53" s="1">
+        <v>51.1</v>
+      </c>
+      <c r="J53">
+        <f>I53/100</f>
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="K53">
+        <f>$K$56*J53</f>
+        <v>2726.7973660165726</v>
+      </c>
+      <c r="L53">
+        <v>7957000</v>
+      </c>
+      <c r="M53" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="N53">
+        <f>M53/100</f>
+        <v>0.495</v>
+      </c>
+      <c r="O53">
+        <f>$O$56*N53</f>
+        <v>2655.662157153447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54">
+        <v>4484000</v>
+      </c>
+      <c r="E54" s="1">
+        <v>29</v>
+      </c>
+      <c r="F54">
+        <f>E54/100</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ref="G54:G55" si="29">$G$56*F54</f>
+        <v>1546.6802608028636</v>
+      </c>
+      <c r="H54">
+        <v>5596000</v>
+      </c>
+      <c r="I54" s="1">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="J54">
+        <f>I54/100</f>
+        <v>0.35700000000000004</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ref="K54:K55" si="30">$K$56*J54</f>
+        <v>1905.0228173540443</v>
+      </c>
+      <c r="L54">
+        <v>5636000</v>
+      </c>
+      <c r="M54" s="1">
+        <v>35</v>
+      </c>
+      <c r="N54">
+        <f>M54/100</f>
+        <v>0.35</v>
+      </c>
+      <c r="O54">
+        <f t="shared" ref="O54:O55" si="31">$O$56*N54</f>
+        <v>1877.7409191994068</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>1626000</v>
+      </c>
+      <c r="E55" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="F55">
+        <f>E55/100</f>
+        <v>0.105</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="29"/>
+        <v>560.00492201482996</v>
+      </c>
+      <c r="H55">
+        <v>2080000</v>
+      </c>
+      <c r="I55" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="J55">
+        <f>I55/100</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="30"/>
+        <v>709.71438293582037</v>
+      </c>
+      <c r="L55">
+        <v>2490000</v>
+      </c>
+      <c r="M55" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="N55">
+        <f>M55/100</f>
+        <v>0.155</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="31"/>
+        <v>831.57097850259447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B56" s="13"/>
+      <c r="C56" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56">
+        <f>SUM(D53:D55)</f>
+        <v>15451000</v>
+      </c>
+      <c r="E56">
+        <f>D56/D52</f>
+        <v>0.49383150089491179</v>
+      </c>
+      <c r="G56" s="30">
+        <f>E56*$D$34</f>
+        <v>5333.380209665047</v>
+      </c>
+      <c r="H56">
+        <f>SUM(H53:H55)</f>
+        <v>15682000</v>
+      </c>
+      <c r="I56">
+        <f>H56/H52</f>
+        <v>0.4940924414757869</v>
+      </c>
+      <c r="K56" s="30">
+        <f>I56*$D$34</f>
+        <v>5336.1983679384984</v>
+      </c>
+      <c r="L56">
+        <f>SUM(L53:L55)</f>
+        <v>16083000</v>
+      </c>
+      <c r="M56">
+        <f>L56/L52</f>
+        <v>0.49675685693106003</v>
+      </c>
+      <c r="O56" s="30">
+        <f>M56*$D$34</f>
+        <v>5364.9740548554482</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57">
+        <v>8536000</v>
+      </c>
+      <c r="E57" s="1">
+        <v>53.9</v>
+      </c>
+      <c r="F57">
+        <f>E57/100</f>
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="G57">
+        <f>$G$60*F57</f>
+        <v>2946.5080669905396</v>
+      </c>
+      <c r="H57">
+        <v>8037000</v>
+      </c>
+      <c r="I57" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="J57">
+        <f>I57/100</f>
+        <v>0.501</v>
+      </c>
+      <c r="K57">
+        <f>$K$60*J57</f>
+        <v>2737.3646176628122</v>
+      </c>
+      <c r="L57">
+        <v>7526000</v>
+      </c>
+      <c r="M57" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="N57">
+        <f>M57/100</f>
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="O57">
+        <f>$O$60*N57</f>
+        <v>2511.2902149740553</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58">
+        <v>5353000</v>
+      </c>
+      <c r="E58" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F58">
+        <f>E58/100</f>
+        <v>0.33799999999999997</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ref="G58:G59" si="32">$G$60*F58</f>
+        <v>1847.717489133214</v>
+      </c>
+      <c r="H58">
+        <v>5486000</v>
+      </c>
+      <c r="I58" s="1">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="J58">
+        <f>I58/100</f>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ref="K58:K59" si="33">$K$60*J58</f>
+        <v>1868.6201581650337</v>
+      </c>
+      <c r="L58">
+        <v>6219000</v>
+      </c>
+      <c r="M58" s="1">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="N58">
+        <f>M58/100</f>
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="O58">
+        <f t="shared" ref="O58:O59" si="34">$O$60*N58</f>
+        <v>2076.434766493699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>1948000</v>
+      </c>
+      <c r="E59" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="F59">
+        <f>E59/100</f>
+        <v>0.12300000000000001</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="32"/>
+        <v>672.39423421119932</v>
+      </c>
+      <c r="H59">
+        <v>2534000</v>
+      </c>
+      <c r="I59" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="J59">
+        <f>I59/100</f>
+        <v>0.158</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="33"/>
+        <v>863.28065786571722</v>
+      </c>
+      <c r="L59">
+        <v>2550000</v>
+      </c>
+      <c r="M59" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="N59">
+        <f>M59/100</f>
+        <v>0.157</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="34"/>
+        <v>853.4038176426983</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B60" s="13"/>
+      <c r="C60" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60">
+        <f>SUM(D57:D59)</f>
+        <v>15837000</v>
+      </c>
+      <c r="E60">
+        <f>D60/D52</f>
+        <v>0.50616849910508821</v>
+      </c>
+      <c r="G60" s="30">
+        <f>E60*$D$34</f>
+        <v>5466.619790334953</v>
+      </c>
+      <c r="H60">
+        <f>SUM(H57:H59)</f>
+        <v>16057000</v>
+      </c>
+      <c r="I60">
+        <f>H60/H52</f>
+        <v>0.5059075585242131</v>
+      </c>
+      <c r="K60" s="30">
+        <f>I60*$D$34</f>
+        <v>5463.8016320615016</v>
+      </c>
+      <c r="L60">
+        <f>SUM(L57:L59)</f>
+        <v>16295000</v>
+      </c>
+      <c r="M60">
+        <f>L60/L52</f>
+        <v>0.50330491722263404</v>
+      </c>
+      <c r="O60" s="30">
+        <f>M60*$D$34</f>
+        <v>5435.6931060044481</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:O35"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{0E614C23-4ABC-446D-AD16-615D1A054F55}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AF83DB-8F80-4F70-9313-4978C3592E63}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1503,370 +4138,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7227D25A-ADEC-4FE8-A9E6-B973C9E0598A}">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>374320</v>
-      </c>
-      <c r="D2" s="1">
-        <v>91760</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>410210</v>
-      </c>
-      <c r="D3" s="1">
-        <v>119930</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>417000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>47000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>422000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>114000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>395000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>52000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>433000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>122000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>364900</v>
-      </c>
-      <c r="D8" s="1">
-        <v>80100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
-        <v>411400</v>
-      </c>
-      <c r="D9" s="1">
-        <v>130600</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>13645100</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1624600</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>13854000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1836000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
-        <v>13825000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1626000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>13889000</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1948000</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13602000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2080000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>13523000</v>
-      </c>
-      <c r="D15">
-        <v>2534000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1">
-        <v>13593000</v>
-      </c>
-      <c r="D16">
-        <v>2490000</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1">
-        <v>13745000</v>
-      </c>
-      <c r="D17">
-        <v>2550000</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879859C3-263B-4CC5-905B-A4C37BDEA5E2}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:G37"/>
+      <selection activeCell="F29" sqref="F29:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2767,7 +5044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F00626E-FC96-4D58-A210-802AEAA4BEB8}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -3027,7 +5304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1197F7C-7633-43B0-B4D8-083EB56C1716}">
   <dimension ref="A1:D22"/>
   <sheetViews>

--- a/Proj_data.xlsx
+++ b/Proj_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95joo\Documents\Stat-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{627DDD70-4A47-4670-B8F1-30CDBD1FF297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCC9A64-473D-4E76-AD41-F17CB85D967A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9158" yWindow="1837" windowWidth="14077" windowHeight="12518" xr2:uid="{04E72AFF-3F4D-4E4A-808A-377A8F1A4F76}"/>
+    <workbookView xWindow="8423" yWindow="1837" windowWidth="14077" windowHeight="12518" xr2:uid="{04E72AFF-3F4D-4E4A-808A-377A8F1A4F76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="61">
   <si>
     <t>Year</t>
   </si>
@@ -163,18 +163,6 @@
     <t>Post</t>
   </si>
   <si>
-    <t>Geography</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Aboriginal identity</t>
-  </si>
-  <si>
-    <t>Total, Aboriginal identity</t>
-  </si>
-  <si>
     <t>Number of Respondents</t>
   </si>
   <si>
@@ -230,6 +218,12 @@
   </si>
   <si>
     <t>F_P</t>
+  </si>
+  <si>
+    <t>Pre-COVID</t>
+  </si>
+  <si>
+    <t>Post-COVID</t>
   </si>
 </sst>
 </file>
@@ -426,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -501,6 +495,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -843,7 +841,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -862,10 +860,10 @@
         <v>33</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>3</v>
@@ -941,15 +939,15 @@
         <v>8</v>
       </c>
       <c r="C4" s="31">
-        <v>5000</v>
+        <v>296.59930000000003</v>
       </c>
       <c r="D4" s="28">
         <f>C4-E4</f>
-        <v>4490</v>
+        <v>266.3461714</v>
       </c>
       <c r="E4" s="11">
         <f>F4/100*C4</f>
-        <v>509.99999999999994</v>
+        <v>30.2531286</v>
       </c>
       <c r="F4" s="1">
         <v>10.199999999999999</v>
@@ -969,15 +967,15 @@
         <v>9</v>
       </c>
       <c r="C5" s="31">
-        <v>5776</v>
+        <v>342.6234</v>
       </c>
       <c r="D5" s="28">
         <f>C5-E5</f>
-        <v>4545.7119999999995</v>
+        <v>269.6446158</v>
       </c>
       <c r="E5" s="11">
         <f>F5/100*C5</f>
-        <v>1230.288</v>
+        <v>72.978784199999993</v>
       </c>
       <c r="F5" s="1">
         <v>21.3</v>
@@ -997,15 +995,15 @@
         <v>8</v>
       </c>
       <c r="C6" s="31">
-        <v>4818</v>
+        <v>285.73250000000002</v>
       </c>
       <c r="D6" s="28">
         <f>C6-E6</f>
-        <v>4259.1120000000001</v>
+        <v>252.58753000000002</v>
       </c>
       <c r="E6" s="11">
         <f>F6/100*C6</f>
-        <v>558.88799999999992</v>
+        <v>33.144970000000001</v>
       </c>
       <c r="F6" s="1">
         <v>11.6</v>
@@ -1025,15 +1023,15 @@
         <v>9</v>
       </c>
       <c r="C7" s="31">
-        <v>5982</v>
+        <v>354.76839999999999</v>
       </c>
       <c r="D7" s="28">
         <f>C7-E7</f>
-        <v>4665.96</v>
+        <v>276.71935199999996</v>
       </c>
       <c r="E7" s="11">
         <f>F7/100*C7</f>
-        <v>1316.04</v>
+        <v>78.049047999999999</v>
       </c>
       <c r="F7" s="1">
         <v>22</v>
@@ -1053,15 +1051,15 @@
         <v>8</v>
       </c>
       <c r="C8" s="31">
-        <v>4869</v>
+        <v>284.45409999999998</v>
       </c>
       <c r="D8" s="28">
         <f>C8-E8</f>
-        <v>3992.58</v>
+        <v>233.25236200000001</v>
       </c>
       <c r="E8" s="11">
         <f>F8/100*C8</f>
-        <v>876.42</v>
+        <v>51.201737999999992</v>
       </c>
       <c r="F8" s="1">
         <v>18</v>
@@ -1081,15 +1079,15 @@
         <v>9</v>
       </c>
       <c r="C9" s="31">
-        <v>5931</v>
+        <v>346.45870000000002</v>
       </c>
       <c r="D9" s="28">
         <f>C9-E9</f>
-        <v>4501.6289999999999</v>
+        <v>262.96215330000001</v>
       </c>
       <c r="E9" s="11">
         <f>F9/100*C9</f>
-        <v>1429.3710000000001</v>
+        <v>83.49654670000001</v>
       </c>
       <c r="F9" s="1">
         <v>24.1</v>
@@ -1165,15 +1163,15 @@
         <v>8</v>
       </c>
       <c r="C12" s="31">
-        <v>5333</v>
+        <v>9876.6299999999992</v>
       </c>
       <c r="D12" s="28">
         <f>C12-E12</f>
-        <v>4773.0349999999999</v>
+        <v>8839.5838499999991</v>
       </c>
       <c r="E12" s="11">
         <f>F12/100*C12</f>
-        <v>559.96500000000003</v>
+        <v>1037.0461499999999</v>
       </c>
       <c r="F12" s="1">
         <v>10.5</v>
@@ -1193,15 +1191,15 @@
         <v>9</v>
       </c>
       <c r="C13" s="31">
-        <v>5467</v>
+        <v>10123.370000000001</v>
       </c>
       <c r="D13" s="28">
         <f>C13-E13</f>
-        <v>4794.5590000000002</v>
+        <v>8878.1954900000001</v>
       </c>
       <c r="E13" s="11">
         <f>F13/100*C13</f>
-        <v>672.44100000000003</v>
+        <v>1245.1745100000003</v>
       </c>
       <c r="F13" s="1">
         <v>12.3</v>
@@ -1221,15 +1219,15 @@
         <v>8</v>
       </c>
       <c r="C14" s="31">
-        <v>5336</v>
+        <v>9881.8490000000002</v>
       </c>
       <c r="D14" s="28">
         <f>C14-E14</f>
-        <v>4626.3119999999999</v>
+        <v>8567.5630830000009</v>
       </c>
       <c r="E14" s="11">
         <f>F14/100*C14</f>
-        <v>709.68799999999999</v>
+        <v>1314.2859170000002</v>
       </c>
       <c r="F14" s="1">
         <v>13.3</v>
@@ -1249,15 +1247,15 @@
         <v>9</v>
       </c>
       <c r="C15" s="31">
-        <v>5464</v>
+        <v>10118.15</v>
       </c>
       <c r="D15" s="28">
         <f>C15-E15</f>
-        <v>4600.6880000000001</v>
+        <v>8519.4822999999997</v>
       </c>
       <c r="E15" s="11">
         <f>F15/100*C15</f>
-        <v>863.31200000000001</v>
+        <v>1598.6677</v>
       </c>
       <c r="F15" s="1">
         <v>15.8</v>
@@ -1277,15 +1275,15 @@
         <v>8</v>
       </c>
       <c r="C16" s="31">
-        <v>5365</v>
+        <v>9935.1370000000006</v>
       </c>
       <c r="D16" s="28">
         <f>C16-E16</f>
-        <v>4533.4250000000002</v>
+        <v>8395.1907650000012</v>
       </c>
       <c r="E16" s="11">
         <f>F16/100*C16</f>
-        <v>831.57500000000005</v>
+        <v>1539.9462350000001</v>
       </c>
       <c r="F16" s="1">
         <v>15.5</v>
@@ -1305,15 +1303,15 @@
         <v>9</v>
       </c>
       <c r="C17" s="31">
-        <v>5436</v>
+        <v>10066.1</v>
       </c>
       <c r="D17" s="28">
         <f>C17-E17</f>
-        <v>4582.5479999999998</v>
+        <v>8485.7223000000013</v>
       </c>
       <c r="E17" s="11">
         <f>F17/100*C17</f>
-        <v>853.452</v>
+        <v>1580.3777</v>
       </c>
       <c r="F17" s="1">
         <v>15.7</v>
@@ -1334,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7C24AE-18FA-4348-BD18-857E36621CD2}">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1344,14 +1342,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -1359,657 +1355,649 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="15">
+        <v>24220</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="15">
-        <v>24220</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="A3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="G4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="13">
-        <v>2017</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2017</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="17" t="s">
+      <c r="A5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="10">
+        <v>183820</v>
+      </c>
+      <c r="E5" s="20">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F5" s="13">
+        <f>E5/100</f>
+        <v>0.184</v>
+      </c>
+      <c r="G5" s="11">
+        <f>F5*$D$2</f>
+        <v>4456.4799999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="10">
-        <v>183820</v>
-      </c>
-      <c r="E6" s="20">
-        <v>18.399999999999999</v>
+      <c r="D6" s="21">
+        <v>292080</v>
+      </c>
+      <c r="E6" s="22">
+        <v>29.3</v>
       </c>
       <c r="F6" s="13">
-        <f>E6/100</f>
-        <v>0.184</v>
+        <f t="shared" ref="F6:F8" si="0">E6/100</f>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G6" s="11">
-        <f>F6*$D$3</f>
-        <v>4456.4799999999996</v>
+        <f t="shared" ref="G6:G8" si="1">F6*$D$2</f>
+        <v>7096.4599999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="21">
-        <v>292080</v>
+        <v>308620</v>
       </c>
       <c r="E7" s="22">
-        <v>29.3</v>
+        <v>30.9</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" ref="F7:F9" si="0">E7/100</f>
-        <v>0.29299999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.309</v>
       </c>
       <c r="G7" s="11">
-        <f t="shared" ref="G7:G9" si="1">F7*$D$3</f>
-        <v>7096.4599999999991</v>
+        <f t="shared" si="1"/>
+        <v>7483.98</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="21">
-        <v>308620</v>
-      </c>
-      <c r="E8" s="22">
-        <v>30.9</v>
+        <v>52</v>
+      </c>
+      <c r="D8" s="23">
+        <v>211690</v>
+      </c>
+      <c r="E8" s="24">
+        <v>21.2</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="0"/>
-        <v>0.309</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" si="1"/>
-        <v>7483.98</v>
+        <v>5134.6399999999994</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="23">
-        <v>211690</v>
-      </c>
-      <c r="E9" s="24">
-        <v>21.2</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" si="0"/>
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" si="1"/>
-        <v>5134.6399999999994</v>
+      <c r="C9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="26">
+        <f>SUM(D5:D8)</f>
+        <v>996210</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="26">
+        <f>SUM(G5:G8)</f>
+        <v>24171.559999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="26">
-        <f>SUM(D6:D9)</f>
-        <v>996210</v>
-      </c>
-      <c r="E10" s="27">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="26">
-        <f>SUM(G6:G9)</f>
-        <v>24171.559999999998</v>
+      <c r="B10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="10">
+        <v>94620</v>
+      </c>
+      <c r="E10" s="20">
+        <v>20.2</v>
+      </c>
+      <c r="F10" s="13">
+        <f>E10/100</f>
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="G10" s="11">
+        <f>F10*$G$14</f>
+        <v>2288.8944206542792</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="10">
-        <v>94620</v>
-      </c>
-      <c r="E11" s="20">
-        <v>20.2</v>
+        <v>50</v>
+      </c>
+      <c r="D11" s="21">
+        <v>136570</v>
+      </c>
+      <c r="E11" s="22">
+        <v>29.2</v>
       </c>
       <c r="F11" s="13">
-        <f>E11/100</f>
-        <v>0.20199999999999999</v>
+        <f t="shared" ref="F11:F12" si="2">E11/100</f>
+        <v>0.29199999999999998</v>
       </c>
       <c r="G11" s="11">
-        <f>F11*$G$15</f>
-        <v>2288.8944206542792</v>
+        <f t="shared" ref="G11:G13" si="3">F11*$G$14</f>
+        <v>3308.6988655002456</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="21">
-        <v>136570</v>
+        <v>143120</v>
       </c>
       <c r="E12" s="22">
-        <v>29.2</v>
+        <v>30.6</v>
       </c>
       <c r="F12" s="13">
-        <f t="shared" ref="F12:F13" si="2">E12/100</f>
-        <v>0.29199999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.30599999999999999</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" ref="G12:G14" si="3">F12*$G$15</f>
-        <v>3308.6988655002456</v>
+        <f t="shared" si="3"/>
+        <v>3467.3351124762848</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="21">
-        <v>143120</v>
-      </c>
-      <c r="E13" s="22">
-        <v>30.6</v>
+        <v>52</v>
+      </c>
+      <c r="D13" s="23">
+        <v>91760</v>
+      </c>
+      <c r="E13" s="24">
+        <v>19.600000000000001</v>
       </c>
       <c r="F13" s="13">
-        <f t="shared" si="2"/>
-        <v>0.30599999999999999</v>
+        <f>E13/100</f>
+        <v>0.19600000000000001</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" si="3"/>
-        <v>3467.3351124762848</v>
+        <v>2220.9074576645485</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="23">
-        <v>91760</v>
-      </c>
-      <c r="E14" s="24">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="F14" s="13">
-        <f>E14/100</f>
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="G14" s="11">
-        <f t="shared" si="3"/>
-        <v>2220.9074576645485</v>
+      <c r="C14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="26">
+        <f>SUM(D10:D13)</f>
+        <v>466070</v>
+      </c>
+      <c r="E14" s="27">
+        <f>D14/D9</f>
+        <v>0.46784312544543821</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="26">
+        <f>D2*E14</f>
+        <v>11331.160498288513</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="26">
-        <f>SUM(D11:D14)</f>
-        <v>466070</v>
-      </c>
-      <c r="E15" s="27">
-        <f>D15/D10</f>
-        <v>0.46784312544543821</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="26">
-        <f>D3*E15</f>
-        <v>11331.160498288513</v>
+      <c r="B15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="10">
+        <v>89200</v>
+      </c>
+      <c r="E15" s="20">
+        <v>16.8</v>
+      </c>
+      <c r="F15" s="13">
+        <f>E15/100</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G15" s="11">
+        <f>F15*$G$19</f>
+        <v>2165.3250362875301</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="13"/>
-      <c r="B16" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="10">
-        <v>89200</v>
-      </c>
-      <c r="E16" s="20">
-        <v>16.8</v>
+        <v>50</v>
+      </c>
+      <c r="D16" s="21">
+        <v>155510</v>
+      </c>
+      <c r="E16" s="22">
+        <v>29.3</v>
       </c>
       <c r="F16" s="13">
-        <f>E16/100</f>
-        <v>0.16800000000000001</v>
+        <f t="shared" ref="F16:F18" si="4">E16/100</f>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G16" s="11">
-        <f>F16*$G$20</f>
-        <v>2165.3250362875301</v>
+        <f t="shared" ref="G16:G18" si="5">F16*$G$19</f>
+        <v>3776.4299740014653</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="21">
-        <v>155510</v>
+        <v>165500</v>
       </c>
       <c r="E17" s="22">
-        <v>29.3</v>
+        <v>31.2</v>
       </c>
       <c r="F17" s="13">
-        <f t="shared" ref="F17:F19" si="4">E17/100</f>
-        <v>0.29299999999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.312</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" ref="G17:G19" si="5">F17*$G$20</f>
-        <v>3776.4299740014653</v>
+        <f t="shared" si="5"/>
+        <v>4021.3179245339838</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="21">
-        <v>165500</v>
-      </c>
-      <c r="E18" s="22">
-        <v>31.2</v>
+        <v>52</v>
+      </c>
+      <c r="D18" s="23">
+        <v>119930</v>
+      </c>
+      <c r="E18" s="24">
+        <v>22.6</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="4"/>
-        <v>0.312</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" si="5"/>
-        <v>4021.3179245339838</v>
+        <v>2912.8777273867963</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="23">
-        <v>119930</v>
-      </c>
-      <c r="E19" s="24">
-        <v>22.6</v>
-      </c>
-      <c r="F19" s="13">
-        <f t="shared" si="4"/>
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" si="5"/>
-        <v>2912.8777273867963</v>
+      <c r="C19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="26">
+        <f>SUM(D15:D18)</f>
+        <v>530140</v>
+      </c>
+      <c r="E19" s="27">
+        <f>D19/D9</f>
+        <v>0.53215687455456184</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="26">
+        <f>D2*E19</f>
+        <v>12888.839501711487</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="26">
-        <f>SUM(D16:D19)</f>
-        <v>530140</v>
-      </c>
-      <c r="E20" s="27">
-        <f>D20/D10</f>
-        <v>0.53215687455456184</v>
+      <c r="C20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="15">
+        <v>65000</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="26">
-        <f>D3*E20</f>
-        <v>12888.839501711487</v>
-      </c>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="15">
-        <v>65000</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="26"/>
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5">
+        <v>18885900</v>
+      </c>
+      <c r="E21" s="1">
+        <v>61</v>
+      </c>
+      <c r="F21">
+        <f>E21/100</f>
+        <v>0.61</v>
+      </c>
+      <c r="G21">
+        <f>$D$20*F21</f>
+        <v>39650</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="B22" s="13"/>
       <c r="C22" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="5">
-        <v>18885900</v>
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>8637800</v>
       </c>
       <c r="E22" s="1">
-        <v>61</v>
+        <v>27.9</v>
       </c>
       <c r="F22">
-        <f>E22/100</f>
-        <v>0.61</v>
+        <f t="shared" ref="F22:F23" si="6">E22/100</f>
+        <v>0.27899999999999997</v>
       </c>
       <c r="G22">
-        <f>$D$21*F22</f>
-        <v>39650</v>
+        <f t="shared" ref="G22:G23" si="7">$D$20*F22</f>
+        <v>18134.999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B23" s="13"/>
       <c r="C23" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23">
-        <v>8637800</v>
+        <v>52</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3460600</v>
       </c>
       <c r="E23" s="1">
-        <v>27.9</v>
+        <v>11.2</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F24" si="6">E23/100</f>
-        <v>0.27899999999999997</v>
+        <f t="shared" si="6"/>
+        <v>0.11199999999999999</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G24" si="7">$D$21*F23</f>
-        <v>18134.999999999996</v>
+        <f t="shared" si="7"/>
+        <v>7279.9999999999991</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="5">
-        <v>3460600</v>
-      </c>
-      <c r="E24" s="1">
-        <v>11.2</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="6"/>
-        <v>0.11199999999999999</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="7"/>
-        <v>7279.9999999999991</v>
+      <c r="C24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="26">
+        <f>SUM(D21:D23)</f>
+        <v>30984300</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E21:E23)</f>
+        <v>100.10000000000001</v>
+      </c>
+      <c r="G24" s="30">
+        <f>SUM(G21:G23)</f>
+        <v>65065</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="13"/>
-      <c r="C25" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="26">
-        <f>SUM(D22:D24)</f>
-        <v>30984300</v>
-      </c>
-      <c r="E25">
-        <f>SUM(E22:E24)</f>
-        <v>100.10000000000001</v>
-      </c>
-      <c r="G25" s="30">
-        <f>SUM(G22:G24)</f>
-        <v>65065</v>
+      <c r="B25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="7">
+        <v>9310400</v>
+      </c>
+      <c r="E25" s="1">
+        <v>61</v>
+      </c>
+      <c r="F25">
+        <f>E25/100</f>
+        <v>0.61</v>
+      </c>
+      <c r="G25">
+        <f>$G$28*F25</f>
+        <v>19540.335105198439</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B26" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="7">
-        <v>9310400</v>
+        <v>51</v>
+      </c>
+      <c r="D26">
+        <v>4334700</v>
       </c>
       <c r="E26" s="1">
-        <v>61</v>
+        <v>28.4</v>
       </c>
       <c r="F26">
-        <f>E26/100</f>
-        <v>0.61</v>
+        <f t="shared" ref="F26:F31" si="8">E26/100</f>
+        <v>0.28399999999999997</v>
       </c>
       <c r="G26">
-        <f>$G$29*F26</f>
-        <v>19540.335105198439</v>
+        <f t="shared" ref="G26:G27" si="9">$G$28*F26</f>
+        <v>9097.4674916005843</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B27" s="13"/>
       <c r="C27" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27">
-        <v>4334700</v>
+        <v>52</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1624600</v>
       </c>
       <c r="E27" s="1">
-        <v>28.4</v>
+        <v>10.6</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F32" si="8">E27/100</f>
-        <v>0.28399999999999997</v>
+        <f t="shared" si="8"/>
+        <v>0.106</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G28" si="9">$G$29*F27</f>
-        <v>9097.4674916005843</v>
+        <f t="shared" si="9"/>
+        <v>3395.533641231204</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
-        <v>56</v>
+      <c r="C28" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="D28" s="6">
-        <v>1624600</v>
-      </c>
-      <c r="E28" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="F28">
+        <f>SUM(D25:D27)</f>
+        <v>15269700</v>
+      </c>
+      <c r="E28">
+        <f>D28/D24</f>
+        <v>0.49282055750815734</v>
+      </c>
+      <c r="G28" s="30">
+        <f>D20*E28</f>
+        <v>32033.336238030228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B29" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="8">
+        <v>9575500</v>
+      </c>
+      <c r="E29" s="1">
+        <v>61.1</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="8"/>
-        <v>0.106</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="9"/>
-        <v>3395.533641231204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B29" s="13"/>
-      <c r="C29" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="6">
-        <f>SUM(D26:D28)</f>
-        <v>15269700</v>
-      </c>
-      <c r="E29">
-        <f>D29/D25</f>
-        <v>0.49282055750815734</v>
-      </c>
-      <c r="G29" s="30">
-        <f>D21*E29</f>
-        <v>32033.336238030228</v>
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="G29">
+        <f>$G$32*F29</f>
+        <v>20111.099815067631</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="B30" s="13"/>
       <c r="C30" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="8">
-        <v>9575500</v>
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>4278500</v>
       </c>
       <c r="E30" s="1">
-        <v>61.1</v>
+        <v>27.3</v>
       </c>
       <c r="F30">
         <f t="shared" si="8"/>
-        <v>0.61099999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="G30">
-        <f>$G$33*F30</f>
-        <v>20111.099815067631</v>
+        <f t="shared" ref="G30:G31" si="10">$G$32*F30</f>
+        <v>8985.8105556685168</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B31" s="13"/>
       <c r="C31" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31">
-        <v>4278500</v>
+        <v>52</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1836000</v>
       </c>
       <c r="E31" s="1">
-        <v>27.3</v>
+        <v>11.7</v>
       </c>
       <c r="F31">
         <f t="shared" si="8"/>
-        <v>0.27300000000000002</v>
+        <v>0.11699999999999999</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31:G32" si="10">$G$33*F31</f>
-        <v>8985.8105556685168</v>
+        <f t="shared" si="10"/>
+        <v>3851.061666715078</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B32" s="13"/>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="6">
+        <f>SUM(D29:D31)</f>
+        <v>15690000</v>
+      </c>
+      <c r="E32">
+        <f>D32/D24</f>
+        <v>0.50638549200724237</v>
+      </c>
+      <c r="G32" s="30">
+        <f>D20*E32</f>
+        <v>32915.056980470756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="15">
+        <v>20000</v>
+      </c>
+      <c r="E33" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="7">
-        <v>1836000</v>
-      </c>
-      <c r="E32" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="8"/>
-        <v>0.11699999999999999</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="10"/>
-        <v>3851.061666715078</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B33" s="13"/>
-      <c r="C33" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="6">
-        <f>SUM(D30:D32)</f>
-        <v>15690000</v>
-      </c>
-      <c r="E33">
-        <f>D33/D25</f>
-        <v>0.50638549200724237</v>
-      </c>
-      <c r="G33" s="30">
-        <f>D21*E33</f>
-        <v>32915.056980470756</v>
-      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A34" s="13"/>
+      <c r="A34" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="B34" s="13"/>
-      <c r="C34" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="15">
-        <f>20000*0.54</f>
-        <v>10800</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
-      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D35" s="29">
@@ -2033,40 +2021,40 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D36" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O36" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
@@ -2074,10 +2062,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D37">
         <v>489000</v>
@@ -2090,8 +2078,8 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="G37">
-        <f>$D$34*F37</f>
-        <v>5270.4</v>
+        <f>$D$33*F37</f>
+        <v>9760</v>
       </c>
       <c r="H37">
         <v>462000</v>
@@ -2104,8 +2092,8 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="K37">
-        <f>$D$34*J37</f>
-        <v>4978.8</v>
+        <f>$D$33*J37</f>
+        <v>9220</v>
       </c>
       <c r="L37">
         <v>392000</v>
@@ -2118,14 +2106,14 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="O37">
-        <f>$D$34*N37</f>
-        <v>4287.6000000000004</v>
+        <f>$D$33*N37</f>
+        <v>7940</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D38">
         <v>352000</v>
@@ -2138,8 +2126,8 @@
         <v>0.35100000000000003</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:G39" si="12">$D$34*F38</f>
-        <v>3790.8</v>
+        <f t="shared" ref="G38:G39" si="12">$D$33*F38</f>
+        <v>7020.0000000000009</v>
       </c>
       <c r="H38">
         <v>366000</v>
@@ -2152,8 +2140,8 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K39" si="14">$D$34*J38</f>
-        <v>3942</v>
+        <f t="shared" ref="K38:K39" si="14">$D$33*J38</f>
+        <v>7300</v>
       </c>
       <c r="L38">
         <v>385000</v>
@@ -2166,14 +2154,14 @@
         <v>0.39</v>
       </c>
       <c r="O38">
-        <f t="shared" ref="O38:O39" si="16">$D$34*N38</f>
-        <v>4212</v>
+        <f t="shared" ref="O38:O39" si="16">$D$33*N38</f>
+        <v>7800</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D39">
         <v>161300</v>
@@ -2187,7 +2175,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="12"/>
-        <v>1738.8</v>
+        <v>3220</v>
       </c>
       <c r="H39">
         <v>174000</v>
@@ -2201,7 +2189,7 @@
       </c>
       <c r="K39">
         <f t="shared" si="14"/>
-        <v>1879.1999999999998</v>
+        <v>3479.9999999999995</v>
       </c>
       <c r="L39">
         <v>210000</v>
@@ -2215,7 +2203,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="16"/>
-        <v>2300.4</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
@@ -2228,16 +2216,16 @@
         <v>1002300</v>
       </c>
       <c r="E40">
-        <f>SUM(E37:E39)</f>
-        <v>100</v>
+        <f>D40/D52</f>
+        <v>3.2034645870621326E-2</v>
       </c>
       <c r="F40">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>3.2034645870621326E-4</v>
       </c>
       <c r="G40" s="30">
-        <f>SUM(G37:G39)</f>
-        <v>10800</v>
+        <f>$D$33*E40</f>
+        <v>640.69291741242648</v>
       </c>
       <c r="H40">
         <f>SUM(H37:H39)</f>
@@ -2253,7 +2241,7 @@
       </c>
       <c r="K40" s="30">
         <f>SUM(K37:K39)</f>
-        <v>10800</v>
+        <v>20000</v>
       </c>
       <c r="L40">
         <f>SUM(L37:L39)</f>
@@ -2269,15 +2257,15 @@
       </c>
       <c r="O40" s="30">
         <f>SUM(O37:O39)</f>
-        <v>10800</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B41" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D41">
         <v>241000</v>
@@ -2291,7 +2279,7 @@
       </c>
       <c r="G41">
         <f>$G$44*F41</f>
-        <v>2594.8446572882372</v>
+        <v>153.93505497315266</v>
       </c>
       <c r="H41">
         <v>221000</v>
@@ -2305,7 +2293,7 @@
       </c>
       <c r="K41">
         <f>$K$44*J41</f>
-        <v>2384.8922155688624</v>
+        <v>141.43761186397339</v>
       </c>
       <c r="L41">
         <v>182000</v>
@@ -2319,13 +2307,13 @@
       </c>
       <c r="O41">
         <f>$O$44*N41</f>
-        <v>1991.544072948328</v>
+        <v>116.34172845819484</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B42" s="13"/>
       <c r="C42" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D42">
         <v>176000</v>
@@ -2339,7 +2327,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G43" si="17">$G$44*F42</f>
-        <v>1894.8865609099073</v>
+        <v>112.41114804397853</v>
       </c>
       <c r="H42">
         <v>174000</v>
@@ -2353,7 +2341,7 @@
       </c>
       <c r="K42">
         <f t="shared" ref="K42:K43" si="18">$K$44*J42</f>
-        <v>1874.188023952096</v>
+        <v>111.14996164663768</v>
       </c>
       <c r="L42">
         <v>182900</v>
@@ -2367,13 +2355,13 @@
       </c>
       <c r="O42">
         <f t="shared" ref="O42:O43" si="19">$O$44*N42</f>
-        <v>2001.2826747720364</v>
+        <v>116.91063666581438</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B43" s="13"/>
       <c r="C43" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D43">
         <v>47000</v>
@@ -2387,7 +2375,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="17"/>
-        <v>509.96947021849746</v>
+        <v>30.253132191255432</v>
       </c>
       <c r="H43">
         <v>52000</v>
@@ -2401,7 +2389,7 @@
       </c>
       <c r="K43">
         <f t="shared" si="18"/>
-        <v>558.88383233532932</v>
+        <v>33.144975709537192</v>
       </c>
       <c r="L43">
         <v>80100</v>
@@ -2415,7 +2403,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="19"/>
-        <v>876.47416413373855</v>
+        <v>51.201738685758116</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
@@ -2428,44 +2416,44 @@
         <v>464000</v>
       </c>
       <c r="E44">
-        <f>D44/D40</f>
-        <v>0.46293524892746685</v>
+        <f>D44/D52</f>
+        <v>1.482996676041933E-2</v>
       </c>
       <c r="G44" s="30">
-        <f>E44*$D$34</f>
-        <v>4999.7006884166422</v>
+        <f>E44*$D$33</f>
+        <v>296.59933520838661</v>
       </c>
       <c r="H44">
         <f>SUM(H41:H43)</f>
         <v>447000</v>
       </c>
       <c r="I44">
-        <f>H44/H40</f>
-        <v>0.44610778443113774</v>
+        <f>H44/D52</f>
+        <v>1.4286627461007414E-2</v>
       </c>
       <c r="K44" s="30">
-        <f>I44*$D$34</f>
-        <v>4817.9640718562878</v>
+        <f>I44*$D$33</f>
+        <v>285.73254922014826</v>
       </c>
       <c r="L44">
         <f>SUM(L41:L43)</f>
         <v>445000</v>
       </c>
       <c r="M44">
-        <f>L44/L40</f>
-        <v>0.45086119554204662</v>
+        <f>L44/D52</f>
+        <v>1.4222705190488367E-2</v>
       </c>
       <c r="O44" s="30">
-        <f>M44*$D$34</f>
-        <v>4869.3009118541031</v>
+        <f>M44*$D$33</f>
+        <v>284.45410380976733</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B45" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D45">
         <v>247000</v>
@@ -2479,7 +2467,7 @@
       </c>
       <c r="G45">
         <f>$G$48*F45</f>
-        <v>2656.7375037413944</v>
+        <v>157.60675019176682</v>
       </c>
       <c r="H45">
         <v>241000</v>
@@ -2493,7 +2481,7 @@
       </c>
       <c r="K45">
         <f>$K$48*J45</f>
-        <v>2596.2035928143709</v>
+        <v>153.96957299923292</v>
       </c>
       <c r="L45">
         <v>209800</v>
@@ -2507,13 +2495,13 @@
       </c>
       <c r="O45">
         <f>$O$48*N45</f>
-        <v>2295.1805471124621</v>
+        <v>134.07951930452569</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B46" s="13"/>
       <c r="C46" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D46">
         <v>175000</v>
@@ -2527,7 +2515,7 @@
       </c>
       <c r="G46">
         <f t="shared" ref="G46:G47" si="20">$G$48*F46</f>
-        <v>1888.5938341813828</v>
+        <v>112.03784198414729</v>
       </c>
       <c r="H46">
         <v>192000</v>
@@ -2541,7 +2529,7 @@
       </c>
       <c r="K46">
         <f t="shared" ref="K46:K47" si="21">$K$48*J46</f>
-        <v>2069.7844311377248</v>
+        <v>122.74993607772947</v>
       </c>
       <c r="L46">
         <v>201600</v>
@@ -2555,13 +2543,13 @@
       </c>
       <c r="O46">
         <f t="shared" ref="O46:O47" si="22">$O$48*N46</f>
-        <v>2206.2200607902741</v>
+        <v>128.88263871132705</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B47" s="13"/>
       <c r="C47" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D47">
         <v>114000</v>
@@ -2575,7 +2563,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="20"/>
-        <v>1230.1849745585153</v>
+        <v>72.978777806187679</v>
       </c>
       <c r="H47">
         <v>122000</v>
@@ -2589,7 +2577,7 @@
       </c>
       <c r="K47">
         <f t="shared" si="21"/>
-        <v>1316.0479041916167</v>
+        <v>78.049092303758627</v>
       </c>
       <c r="L47">
         <v>130600</v>
@@ -2603,7 +2591,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="22"/>
-        <v>1429.2984802431613</v>
+        <v>83.496548197391974</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
@@ -2616,36 +2604,36 @@
         <v>536000</v>
       </c>
       <c r="E48">
-        <f>D48/D40</f>
-        <v>0.53477002893345305</v>
+        <f>D48/D52</f>
+        <v>1.7131168499105089E-2</v>
       </c>
       <c r="G48" s="30">
-        <f>E48*$D$34</f>
-        <v>5775.5163124812925</v>
+        <f>E48*$D$33</f>
+        <v>342.62336998210179</v>
       </c>
       <c r="H48">
         <f>SUM(H45:H47)</f>
         <v>555000</v>
       </c>
       <c r="I48">
-        <f>H48/H40</f>
-        <v>0.55389221556886226</v>
+        <f>H48/D52</f>
+        <v>1.7738430069036051E-2</v>
       </c>
       <c r="K48" s="30">
-        <f>I48*$D$34</f>
-        <v>5982.0359281437122</v>
+        <f>I48*$D$33</f>
+        <v>354.76860138072101</v>
       </c>
       <c r="L48">
         <f>SUM(L45:L47)</f>
         <v>542000</v>
       </c>
       <c r="M48">
-        <f>L48/L40</f>
-        <v>0.54913880445795338</v>
+        <f>L48/D52</f>
+        <v>1.7322935310662233E-2</v>
       </c>
       <c r="O48" s="30">
-        <f>M48*$D$34</f>
-        <v>5930.6990881458969</v>
+        <f>M48*$D$33</f>
+        <v>346.45870621324468</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
@@ -2653,10 +2641,10 @@
         <v>37</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D49">
         <v>17877000</v>
@@ -2669,8 +2657,8 @@
         <v>0.57100000000000006</v>
       </c>
       <c r="G49">
-        <f>$D$34*F49</f>
-        <v>6166.8000000000011</v>
+        <f>$D$33*F49</f>
+        <v>11420.000000000002</v>
       </c>
       <c r="H49">
         <v>16043000</v>
@@ -2683,8 +2671,8 @@
         <v>0.505</v>
       </c>
       <c r="K49">
-        <f>$D$34*J49</f>
-        <v>5454</v>
+        <f>$D$33*J49</f>
+        <v>10100</v>
       </c>
       <c r="L49">
         <v>15482000</v>
@@ -2697,14 +2685,14 @@
         <v>0.47799999999999998</v>
       </c>
       <c r="O49">
-        <f>$D$34*N49</f>
-        <v>5162.3999999999996</v>
+        <f>$D$33*N49</f>
+        <v>9560</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D50">
         <v>9837000</v>
@@ -2713,12 +2701,12 @@
         <v>31.4</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:F52" si="23">E50/100</f>
+        <f t="shared" ref="F50:F51" si="23">E50/100</f>
         <v>0.314</v>
       </c>
       <c r="G50">
-        <f t="shared" ref="G50:G51" si="24">$D$34*F50</f>
-        <v>3391.2</v>
+        <f t="shared" ref="G50:G51" si="24">$D$33*F50</f>
+        <v>6280</v>
       </c>
       <c r="H50">
         <v>11082000</v>
@@ -2727,12 +2715,12 @@
         <v>34.9</v>
       </c>
       <c r="J50">
-        <f t="shared" ref="J50:J52" si="25">I50/100</f>
+        <f t="shared" ref="J50:J51" si="25">I50/100</f>
         <v>0.34899999999999998</v>
       </c>
       <c r="K50">
-        <f t="shared" ref="K50:K51" si="26">$D$34*J50</f>
-        <v>3769.2</v>
+        <f t="shared" ref="K50:K51" si="26">$D$33*J50</f>
+        <v>6979.9999999999991</v>
       </c>
       <c r="L50">
         <v>11854000</v>
@@ -2745,14 +2733,14 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="O50">
-        <f t="shared" ref="O50:O51" si="28">$D$34*N50</f>
-        <v>3952.7999999999997</v>
+        <f t="shared" ref="O50:O51" si="28">$D$33*N50</f>
+        <v>7320</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B51" s="13"/>
       <c r="C51" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D51">
         <v>3574000</v>
@@ -2766,7 +2754,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="24"/>
-        <v>1231.2</v>
+        <v>2280</v>
       </c>
       <c r="H51">
         <v>4614000</v>
@@ -2780,7 +2768,7 @@
       </c>
       <c r="K51">
         <f t="shared" si="26"/>
-        <v>1566</v>
+        <v>2900</v>
       </c>
       <c r="L51">
         <v>5040000</v>
@@ -2794,7 +2782,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="28"/>
-        <v>1684.8</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
@@ -2812,7 +2800,7 @@
       </c>
       <c r="G52" s="30">
         <f>SUM(G49:G51)</f>
-        <v>10789.2</v>
+        <v>19980</v>
       </c>
       <c r="H52">
         <f>SUM(H49:H51)</f>
@@ -2824,7 +2812,7 @@
       </c>
       <c r="K52" s="30">
         <f>SUM(K49:K51)</f>
-        <v>10789.2</v>
+        <v>19980</v>
       </c>
       <c r="L52">
         <f>SUM(L49:L51)</f>
@@ -2840,15 +2828,15 @@
       </c>
       <c r="O52" s="30">
         <f>SUM(O49:O51)</f>
-        <v>10799.999999999998</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B53" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D53">
         <v>9341000</v>
@@ -2862,7 +2850,7 @@
       </c>
       <c r="G53">
         <f>$G$56*F53</f>
-        <v>3226.6950268473533</v>
+        <v>5975.3611608284327</v>
       </c>
       <c r="H53">
         <v>8006000</v>
@@ -2876,7 +2864,7 @@
       </c>
       <c r="K53">
         <f>$K$56*J53</f>
-        <v>2726.7973660165726</v>
+        <v>5049.6247518825421</v>
       </c>
       <c r="L53">
         <v>7957000</v>
@@ -2890,13 +2878,13 @@
       </c>
       <c r="O53">
         <f>$O$56*N53</f>
-        <v>2655.662157153447</v>
+        <v>4917.8928836174946</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B54" s="13"/>
       <c r="C54" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D54">
         <v>4484000</v>
@@ -2910,7 +2898,7 @@
       </c>
       <c r="G54">
         <f t="shared" ref="G54:G55" si="29">$G$56*F54</f>
-        <v>1546.6802608028636</v>
+        <v>2864.2227051904883</v>
       </c>
       <c r="H54">
         <v>5596000</v>
@@ -2924,7 +2912,7 @@
       </c>
       <c r="K54">
         <f t="shared" ref="K54:K55" si="30">$K$56*J54</f>
-        <v>1905.0228173540443</v>
+        <v>3527.8200321371191</v>
       </c>
       <c r="L54">
         <v>5636000</v>
@@ -2938,13 +2926,13 @@
       </c>
       <c r="O54">
         <f t="shared" ref="O54:O55" si="31">$O$56*N54</f>
-        <v>1877.7409191994068</v>
+        <v>3477.2979985174202</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B55" s="13"/>
       <c r="C55" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D55">
         <v>1626000</v>
@@ -2958,7 +2946,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="29"/>
-        <v>560.00492201482996</v>
+        <v>1037.0461518793147</v>
       </c>
       <c r="H55">
         <v>2080000</v>
@@ -2972,7 +2960,7 @@
       </c>
       <c r="K55">
         <f t="shared" si="30"/>
-        <v>709.71438293582037</v>
+        <v>1314.2858943255933</v>
       </c>
       <c r="L55">
         <v>2490000</v>
@@ -2986,7 +2974,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="31"/>
-        <v>831.57097850259447</v>
+        <v>1539.9462564862863</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.45">
@@ -3003,8 +2991,8 @@
         <v>0.49383150089491179</v>
       </c>
       <c r="G56" s="30">
-        <f>E56*$D$34</f>
-        <v>5333.380209665047</v>
+        <f>E56*$D$33</f>
+        <v>9876.6300178982365</v>
       </c>
       <c r="H56">
         <f>SUM(H53:H55)</f>
@@ -3015,8 +3003,8 @@
         <v>0.4940924414757869</v>
       </c>
       <c r="K56" s="30">
-        <f>I56*$D$34</f>
-        <v>5336.1983679384984</v>
+        <f>I56*$D$33</f>
+        <v>9881.8488295157385</v>
       </c>
       <c r="L56">
         <f>SUM(L53:L55)</f>
@@ -3027,16 +3015,16 @@
         <v>0.49675685693106003</v>
       </c>
       <c r="O56" s="30">
-        <f>M56*$D$34</f>
-        <v>5364.9740548554482</v>
+        <f>M56*$D$33</f>
+        <v>9935.1371386212013</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B57" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D57">
         <v>8536000</v>
@@ -3050,7 +3038,7 @@
       </c>
       <c r="G57">
         <f>$G$60*F57</f>
-        <v>2946.5080669905396</v>
+        <v>5456.4964203528507</v>
       </c>
       <c r="H57">
         <v>8037000</v>
@@ -3064,7 +3052,7 @@
       </c>
       <c r="K57">
         <f>$K$60*J57</f>
-        <v>2737.3646176628122</v>
+        <v>5069.1937364126152</v>
       </c>
       <c r="L57">
         <v>7526000</v>
@@ -3078,13 +3066,13 @@
       </c>
       <c r="O57">
         <f>$O$60*N57</f>
-        <v>2511.2902149740553</v>
+        <v>4650.5374351371393</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B58" s="13"/>
       <c r="C58" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D58">
         <v>5353000</v>
@@ -3098,7 +3086,7 @@
       </c>
       <c r="G58">
         <f t="shared" ref="G58:G59" si="32">$G$60*F58</f>
-        <v>1847.717489133214</v>
+        <v>3421.6990539503959</v>
       </c>
       <c r="H58">
         <v>5486000</v>
@@ -3112,7 +3100,7 @@
       </c>
       <c r="K58">
         <f t="shared" ref="K58:K59" si="33">$K$60*J58</f>
-        <v>1868.6201581650337</v>
+        <v>3460.4077003056177</v>
       </c>
       <c r="L58">
         <v>6219000</v>
@@ -3126,13 +3114,13 @@
       </c>
       <c r="O58">
         <f t="shared" ref="O58:O59" si="34">$O$60*N58</f>
-        <v>2076.434766493699</v>
+        <v>3845.2495675809241</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B59" s="13"/>
       <c r="C59" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D59">
         <v>1948000</v>
@@ -3146,7 +3134,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="32"/>
-        <v>672.39423421119932</v>
+        <v>1245.174507798517</v>
       </c>
       <c r="H59">
         <v>2534000</v>
@@ -3160,7 +3148,7 @@
       </c>
       <c r="K59">
         <f t="shared" si="33"/>
-        <v>863.28065786571722</v>
+        <v>1598.6678849365132</v>
       </c>
       <c r="L59">
         <v>2550000</v>
@@ -3174,7 +3162,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="34"/>
-        <v>853.4038176426983</v>
+        <v>1580.377440079071</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
@@ -3191,8 +3179,8 @@
         <v>0.50616849910508821</v>
       </c>
       <c r="G60" s="30">
-        <f>E60*$D$34</f>
-        <v>5466.619790334953</v>
+        <f>E60*$D$33</f>
+        <v>10123.369982101764</v>
       </c>
       <c r="H60">
         <f>SUM(H57:H59)</f>
@@ -3203,8 +3191,8 @@
         <v>0.5059075585242131</v>
       </c>
       <c r="K60" s="30">
-        <f>I60*$D$34</f>
-        <v>5463.8016320615016</v>
+        <f>I60*$D$33</f>
+        <v>10118.151170484261</v>
       </c>
       <c r="L60">
         <f>SUM(L57:L59)</f>
@@ -3215,8 +3203,8 @@
         <v>0.50330491722263404</v>
       </c>
       <c r="O60" s="30">
-        <f>M60*$D$34</f>
-        <v>5435.6931060044481</v>
+        <f>M60*$D$33</f>
+        <v>10066.098344452681</v>
       </c>
     </row>
   </sheetData>
@@ -3226,7 +3214,7 @@
     <mergeCell ref="L35:O35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{0E614C23-4ABC-446D-AD16-615D1A054F55}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{0E614C23-4ABC-446D-AD16-615D1A054F55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4142,7 +4130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879859C3-263B-4CC5-905B-A4C37BDEA5E2}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29:F37"/>
     </sheetView>
   </sheetViews>
